--- a/SubRES_TMPL/SubRES_IND_CCS_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_IND_CCS_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BABA37E-DB78-4EB0-B5F8-AF24F91CD948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E4F8AC-53D9-470C-B1E5-8D915EEB392B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="909" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="1160" windowWidth="21640" windowHeight="11200" tabRatio="909" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="47" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="160">
   <si>
     <t>IE</t>
   </si>
@@ -419,9 +419,6 @@
     <t>*Technology Name</t>
   </si>
   <si>
-    <t>Commodity name</t>
-  </si>
-  <si>
     <t>Share-O</t>
   </si>
   <si>
@@ -633,6 +630,15 @@
   </si>
   <si>
     <t>AllRegions</t>
+  </si>
+  <si>
+    <t>*Attribute</t>
+  </si>
+  <si>
+    <t>*Commodity name</t>
+  </si>
+  <si>
+    <t>*2018</t>
   </si>
 </sst>
 </file>
@@ -1802,21 +1808,21 @@
       <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="16" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="16" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="16" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" style="16" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="16" customWidth="1"/>
+    <col min="8" max="10" width="8.1796875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="16" customWidth="1"/>
     <col min="13" max="13" width="10" style="16" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="16" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="16"/>
+    <col min="14" max="14" width="11.453125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="16" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1844,7 +1850,7 @@
       <c r="Y1" s="15"/>
       <c r="Z1" s="15"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1872,7 +1878,7 @@
       <c r="Y2" s="15"/>
       <c r="Z2" s="15"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1900,7 +1906,7 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1928,7 +1934,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1956,7 +1962,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1984,7 +1990,7 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -2012,7 +2018,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -2040,7 +2046,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2068,7 +2074,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -2096,7 +2102,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -2124,7 +2130,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -2152,7 +2158,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -2180,7 +2186,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -2208,7 +2214,7 @@
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -2236,7 +2242,7 @@
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
         <v>68</v>
       </c>
@@ -2266,7 +2272,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -2294,7 +2300,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -2322,7 +2328,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>69</v>
       </c>
@@ -2354,7 +2360,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>70</v>
       </c>
@@ -2386,7 +2392,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
         <v>71</v>
       </c>
@@ -2418,7 +2424,7 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -2446,7 +2452,7 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>72</v>
       </c>
@@ -2478,10 +2484,10 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
@@ -2508,7 +2514,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -2536,12 +2542,12 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
@@ -2568,7 +2574,7 @@
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -2596,7 +2602,7 @@
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -2624,7 +2630,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
         <v>74</v>
       </c>
@@ -2656,7 +2662,7 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
         <v>75</v>
       </c>
@@ -2688,7 +2694,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
         <v>77</v>
       </c>
@@ -2720,7 +2726,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28"/>
       <c r="B32" s="29" t="s">
         <v>79</v>
@@ -2750,7 +2756,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2778,7 +2784,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -2806,7 +2812,7 @@
       <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -2834,7 +2840,7 @@
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -2862,7 +2868,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -2890,7 +2896,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -2918,7 +2924,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2946,7 +2952,7 @@
       <c r="Y39" s="15"/>
       <c r="Z39" s="15"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2974,7 +2980,7 @@
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -3002,7 +3008,7 @@
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -3030,7 +3036,7 @@
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -3058,7 +3064,7 @@
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -3086,7 +3092,7 @@
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -3114,7 +3120,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -3142,7 +3148,7 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -3170,7 +3176,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -3198,7 +3204,7 @@
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -3226,7 +3232,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -3254,7 +3260,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -3282,7 +3288,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -3310,7 +3316,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -3338,7 +3344,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -3366,7 +3372,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -3394,7 +3400,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -3422,7 +3428,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -3450,7 +3456,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -3478,7 +3484,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -3506,7 +3512,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -3534,7 +3540,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -3562,7 +3568,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -3590,7 +3596,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -3618,7 +3624,7 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -3646,7 +3652,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -3674,7 +3680,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -3702,7 +3708,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -3730,7 +3736,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -3758,7 +3764,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -3786,7 +3792,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -3814,7 +3820,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -3842,7 +3848,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -3870,7 +3876,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -3898,7 +3904,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -3926,7 +3932,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -3954,7 +3960,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -3982,7 +3988,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -4010,7 +4016,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -4038,7 +4044,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -4066,7 +4072,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -4094,7 +4100,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -4122,7 +4128,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -4150,7 +4156,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -4178,7 +4184,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -4206,7 +4212,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -4234,7 +4240,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -4262,7 +4268,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -4290,7 +4296,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -4318,7 +4324,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -4346,7 +4352,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -4374,7 +4380,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -4402,7 +4408,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -4430,7 +4436,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -4458,7 +4464,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -4486,7 +4492,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -4514,7 +4520,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -4542,7 +4548,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -4570,7 +4576,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -4598,7 +4604,7 @@
       <c r="Y98" s="15"/>
       <c r="Z98" s="15"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -4656,39 +4662,39 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" customWidth="1"/>
+    <col min="25" max="25" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -4802,12 +4808,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4922,7 +4928,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5039,7 +5045,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5156,7 +5162,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
@@ -5164,7 +5170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
@@ -5172,7 +5178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
@@ -5180,7 +5186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
@@ -5188,7 +5194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
@@ -5196,7 +5202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>23</v>
       </c>
@@ -5204,7 +5210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -5212,7 +5218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>27</v>
       </c>
@@ -5220,7 +5226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
@@ -5228,7 +5234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
@@ -5236,7 +5242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
@@ -5244,7 +5250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
@@ -5252,7 +5258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>37</v>
       </c>
@@ -5260,7 +5266,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>39</v>
       </c>
@@ -5268,7 +5274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>41</v>
       </c>
@@ -5276,7 +5282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>43</v>
       </c>
@@ -5284,7 +5290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>45</v>
       </c>
@@ -5292,7 +5298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>47</v>
       </c>
@@ -5300,7 +5306,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>49</v>
       </c>
@@ -5308,7 +5314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>51</v>
       </c>
@@ -5316,7 +5322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>53</v>
       </c>
@@ -5324,7 +5330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>55</v>
       </c>
@@ -5332,7 +5338,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>57</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>59</v>
       </c>
@@ -5348,7 +5354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>61</v>
       </c>
@@ -5356,7 +5362,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>63</v>
       </c>
@@ -5364,7 +5370,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>65</v>
       </c>
@@ -5372,7 +5378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>67</v>
       </c>
@@ -5422,43 +5428,43 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="6.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5482,7 +5488,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -5528,7 +5534,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
@@ -5560,7 +5566,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -5580,7 +5586,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -5612,21 +5618,21 @@
   <dimension ref="B2:G236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -5634,42 +5640,42 @@
         <v>84</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="31">
-        <v>2018</v>
+        <v>158</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="F4" s="31"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
         <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
       </c>
       <c r="E5" s="30">
         <v>1</v>
@@ -5681,95 +5687,95 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>127</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="30">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>127</v>
       </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="30">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
         <v>88</v>
-      </c>
-      <c r="E9" s="30">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
       </c>
       <c r="E10" s="30">
         <v>1</v>
@@ -5781,75 +5787,75 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>128</v>
       </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="30">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>128</v>
       </c>
-      <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="30">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
         <v>92</v>
-      </c>
-      <c r="E13" s="30">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
       </c>
       <c r="E14" s="30">
         <v>0.1</v>
@@ -5861,15 +5867,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="30">
         <v>0.7</v>
@@ -5881,15 +5887,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="30">
         <v>0.2</v>
@@ -5901,35 +5907,35 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
         <v>92</v>
-      </c>
-      <c r="E17" s="30">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
       </c>
       <c r="E18" s="30">
         <v>1</v>
@@ -5941,95 +5947,95 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="30">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="30">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>130</v>
       </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="30">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="30">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>130</v>
       </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="30">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="30">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" s="30">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
         <v>93</v>
-      </c>
-      <c r="E22" s="30">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
       </c>
       <c r="E23" s="30">
         <v>1</v>
@@ -6041,75 +6047,75 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="30">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>131</v>
       </c>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="30">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>132</v>
-      </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="30">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="30">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" s="30">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
         <v>93</v>
-      </c>
-      <c r="E26" s="30">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
       </c>
       <c r="E27" s="30">
         <v>1</v>
@@ -6121,55 +6127,55 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="30">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>132</v>
       </c>
-      <c r="C28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="30">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" s="30">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
         <v>96</v>
-      </c>
-      <c r="E29" s="30">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" t="s">
-        <v>97</v>
       </c>
       <c r="E30" s="30">
         <v>0.1</v>
@@ -6181,15 +6187,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E31" s="30">
         <v>0.6</v>
@@ -6201,15 +6207,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" s="30">
         <v>0.3</v>
@@ -6221,55 +6227,55 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="30">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="30">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" s="30">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
         <v>97</v>
-      </c>
-      <c r="E34" s="30">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" t="s">
-        <v>98</v>
       </c>
       <c r="E35" s="30">
         <v>1</v>
@@ -6281,55 +6287,55 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="30">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>134</v>
       </c>
-      <c r="C36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="30">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>135</v>
-      </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="30">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
         <v>96</v>
-      </c>
-      <c r="E37" s="30">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" t="s">
-        <v>97</v>
       </c>
       <c r="E38" s="30">
         <v>1</v>
@@ -6341,115 +6347,115 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="30">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="30">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>135</v>
       </c>
-      <c r="C39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="30">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="30">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="30">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
         <v>98</v>
-      </c>
-      <c r="E39" s="30">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="30">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="30">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-      <c r="G41">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="30">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="30">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" t="s">
-        <v>99</v>
       </c>
       <c r="E44" s="30">
         <v>1</v>
@@ -6461,15 +6467,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E45" s="30">
         <v>1</v>
@@ -6481,75 +6487,75 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="30">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="30">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="30">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>137</v>
       </c>
-      <c r="C46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="30">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="G46">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="30">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-      <c r="G47">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="30">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>3</v>
-      </c>
-      <c r="G48">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>138</v>
-      </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" s="30">
         <v>1</v>
@@ -6561,75 +6567,75 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="30">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="30">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="30">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>138</v>
       </c>
-      <c r="C50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="30">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>3</v>
-      </c>
-      <c r="G50">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="30">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>3</v>
-      </c>
-      <c r="G51">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="30">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>3</v>
-      </c>
-      <c r="G52">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>139</v>
-      </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E53" s="30">
         <v>1</v>
@@ -6641,95 +6647,95 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="30">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="30">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="30">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>139</v>
       </c>
-      <c r="C54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="30">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="G54">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="30">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>139</v>
       </c>
-      <c r="C55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="30">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
-      <c r="G55">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>139</v>
-      </c>
-      <c r="C56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D56" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" s="30">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>3</v>
-      </c>
-      <c r="G56">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>140</v>
-      </c>
-      <c r="C57" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" t="s">
         <v>104</v>
-      </c>
-      <c r="E57" s="30">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>3</v>
-      </c>
-      <c r="G57">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" t="s">
-        <v>105</v>
       </c>
       <c r="E58" s="30">
         <v>1</v>
@@ -6741,55 +6747,55 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="30">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="30">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>140</v>
       </c>
-      <c r="C59" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="30">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-      <c r="G59">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" t="s">
-        <v>87</v>
-      </c>
-      <c r="D60" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="30">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>3</v>
-      </c>
-      <c r="G60">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>141</v>
-      </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E61" s="30">
         <v>1</v>
@@ -6801,95 +6807,95 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="30">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="30">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="30">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>141</v>
       </c>
-      <c r="C62" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62" s="30">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>3</v>
-      </c>
-      <c r="G62">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+      <c r="C65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" s="30">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>141</v>
       </c>
-      <c r="C63" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="30">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>3</v>
-      </c>
-      <c r="G63">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="30">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>3</v>
-      </c>
-      <c r="G64">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" t="s">
         <v>104</v>
-      </c>
-      <c r="E65" s="30">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>3</v>
-      </c>
-      <c r="G65">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" t="s">
-        <v>105</v>
       </c>
       <c r="E66" s="30">
         <v>1</v>
@@ -6901,95 +6907,95 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="30">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" s="30">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>142</v>
       </c>
-      <c r="C67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" s="30">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>3</v>
-      </c>
-      <c r="G67">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+      <c r="C69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="30">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>142</v>
       </c>
-      <c r="C68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" s="30">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>3</v>
-      </c>
-      <c r="G68">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" t="s">
         <v>108</v>
       </c>
-      <c r="E69" s="30">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>3</v>
-      </c>
-      <c r="G69">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" s="30">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" t="s">
         <v>109</v>
-      </c>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>3</v>
-      </c>
-      <c r="G70">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" t="s">
-        <v>110</v>
       </c>
       <c r="E71" s="30">
         <v>0.6</v>
@@ -7001,15 +7007,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E72" s="30">
         <v>0.4</v>
@@ -7021,55 +7027,55 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="30">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" t="s">
         <v>108</v>
       </c>
-      <c r="E73" s="30">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>3</v>
-      </c>
-      <c r="G73">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>144</v>
-      </c>
-      <c r="C74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" s="30">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" t="s">
         <v>109</v>
-      </c>
-      <c r="E74" s="30">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>3</v>
-      </c>
-      <c r="G74">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>144</v>
-      </c>
-      <c r="C75" t="s">
-        <v>87</v>
-      </c>
-      <c r="D75" t="s">
-        <v>110</v>
       </c>
       <c r="E75" s="30">
         <v>1</v>
@@ -7081,75 +7087,75 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76" s="30">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>144</v>
       </c>
-      <c r="C76" t="s">
-        <v>87</v>
-      </c>
-      <c r="D76" t="s">
-        <v>111</v>
-      </c>
-      <c r="E76" s="30">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-      <c r="G76">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>145</v>
-      </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D77" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" s="30">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" t="s">
         <v>108</v>
       </c>
-      <c r="E77" s="30">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>3</v>
-      </c>
-      <c r="G77">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>145</v>
-      </c>
-      <c r="C78" t="s">
-        <v>87</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" s="30">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" t="s">
         <v>109</v>
-      </c>
-      <c r="E78" s="30">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-      <c r="G78">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>145</v>
-      </c>
-      <c r="C79" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" t="s">
-        <v>110</v>
       </c>
       <c r="E79" s="30">
         <v>1</v>
@@ -7161,75 +7167,75 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" s="30">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>145</v>
       </c>
-      <c r="C80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" t="s">
-        <v>111</v>
-      </c>
-      <c r="E80" s="30">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>3</v>
-      </c>
-      <c r="G80">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>146</v>
-      </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D81" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="30">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" t="s">
         <v>108</v>
       </c>
-      <c r="E81" s="30">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>3</v>
-      </c>
-      <c r="G81">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" t="s">
-        <v>87</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" s="30">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" t="s">
         <v>109</v>
-      </c>
-      <c r="E82" s="30">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>3</v>
-      </c>
-      <c r="G82">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>146</v>
-      </c>
-      <c r="C83" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" t="s">
-        <v>110</v>
       </c>
       <c r="E83" s="30">
         <v>1</v>
@@ -7241,35 +7247,35 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" s="30">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>146</v>
       </c>
-      <c r="C84" t="s">
-        <v>87</v>
-      </c>
-      <c r="D84" t="s">
-        <v>111</v>
-      </c>
-      <c r="E84" s="30">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-      <c r="G84">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>147</v>
-      </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E85" s="30">
         <v>1</v>
@@ -7281,115 +7287,115 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" s="30">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" t="s">
+        <v>109</v>
+      </c>
+      <c r="E87" s="30">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" t="s">
+        <v>110</v>
+      </c>
+      <c r="E88" s="30">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>147</v>
       </c>
-      <c r="C86" t="s">
-        <v>87</v>
-      </c>
-      <c r="D86" t="s">
-        <v>109</v>
-      </c>
-      <c r="E86" s="30">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>3</v>
-      </c>
-      <c r="G86">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
+      <c r="C89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" s="30">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>147</v>
       </c>
-      <c r="C87" t="s">
-        <v>87</v>
-      </c>
-      <c r="D87" t="s">
-        <v>110</v>
-      </c>
-      <c r="E87" s="30">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>3</v>
-      </c>
-      <c r="G87">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+      <c r="C90" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90" t="s">
+        <v>112</v>
+      </c>
+      <c r="E90" s="30">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>147</v>
       </c>
-      <c r="C88" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" t="s">
-        <v>111</v>
-      </c>
-      <c r="E88" s="30">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>3</v>
-      </c>
-      <c r="G88">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C89" t="s">
-        <v>87</v>
-      </c>
-      <c r="D89" t="s">
-        <v>112</v>
-      </c>
-      <c r="E89" s="30">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-      <c r="G89">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" t="s">
         <v>113</v>
-      </c>
-      <c r="E90" s="30">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-      <c r="G90">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>148</v>
-      </c>
-      <c r="C91" t="s">
-        <v>87</v>
-      </c>
-      <c r="D91" t="s">
-        <v>114</v>
       </c>
       <c r="E91" s="30">
         <v>1</v>
@@ -7401,55 +7407,55 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" s="30">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>148</v>
       </c>
-      <c r="C92" t="s">
-        <v>87</v>
-      </c>
-      <c r="D92" t="s">
-        <v>115</v>
-      </c>
-      <c r="E92" s="30">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>3</v>
-      </c>
-      <c r="G92">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>149</v>
-      </c>
       <c r="C93" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D93" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="30">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" t="s">
         <v>112</v>
-      </c>
-      <c r="E93" s="30">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>3</v>
-      </c>
-      <c r="G93">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>149</v>
-      </c>
-      <c r="C94" t="s">
-        <v>87</v>
-      </c>
-      <c r="D94" t="s">
-        <v>113</v>
       </c>
       <c r="E94" s="30">
         <v>1</v>
@@ -7461,55 +7467,55 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" t="s">
+        <v>113</v>
+      </c>
+      <c r="E95" s="30">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>148</v>
+      </c>
+      <c r="C96" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" t="s">
+        <v>114</v>
+      </c>
+      <c r="E96" s="30">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>149</v>
       </c>
-      <c r="C95" t="s">
-        <v>87</v>
-      </c>
-      <c r="D95" t="s">
-        <v>114</v>
-      </c>
-      <c r="E95" s="30">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>3</v>
-      </c>
-      <c r="G95">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>149</v>
-      </c>
-      <c r="C96" t="s">
-        <v>87</v>
-      </c>
-      <c r="D96" t="s">
-        <v>115</v>
-      </c>
-      <c r="E96" s="30">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>3</v>
-      </c>
-      <c r="G96">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>150</v>
-      </c>
       <c r="C97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E97" s="30">
         <v>1</v>
@@ -7521,95 +7527,95 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" t="s">
+        <v>112</v>
+      </c>
+      <c r="E98" s="30">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" t="s">
+        <v>86</v>
+      </c>
+      <c r="D99" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" s="30">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" t="s">
+        <v>86</v>
+      </c>
+      <c r="D100" t="s">
+        <v>114</v>
+      </c>
+      <c r="E100" s="30">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>150</v>
       </c>
-      <c r="C98" t="s">
-        <v>87</v>
-      </c>
-      <c r="D98" t="s">
-        <v>113</v>
-      </c>
-      <c r="E98" s="30">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>3</v>
-      </c>
-      <c r="G98">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
+      <c r="C101" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" t="s">
+        <v>115</v>
+      </c>
+      <c r="E101" s="30">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>150</v>
       </c>
-      <c r="C99" t="s">
-        <v>87</v>
-      </c>
-      <c r="D99" t="s">
-        <v>114</v>
-      </c>
-      <c r="E99" s="30">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-      <c r="G99">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>150</v>
-      </c>
-      <c r="C100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D100" t="s">
-        <v>115</v>
-      </c>
-      <c r="E100" s="30">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-      <c r="G100">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>151</v>
-      </c>
-      <c r="C101" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="C102" t="s">
+        <v>86</v>
+      </c>
+      <c r="D102" t="s">
         <v>116</v>
-      </c>
-      <c r="E101" s="30">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>3</v>
-      </c>
-      <c r="G101">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>151</v>
-      </c>
-      <c r="C102" t="s">
-        <v>87</v>
-      </c>
-      <c r="D102" t="s">
-        <v>117</v>
       </c>
       <c r="E102" s="30">
         <v>1</v>
@@ -7621,75 +7627,75 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
+        <v>150</v>
+      </c>
+      <c r="C103" t="s">
+        <v>86</v>
+      </c>
+      <c r="D103" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103" s="30">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="30">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>151</v>
       </c>
-      <c r="C103" t="s">
-        <v>87</v>
-      </c>
-      <c r="D103" t="s">
-        <v>118</v>
-      </c>
-      <c r="E103" s="30">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>3</v>
-      </c>
-      <c r="G103">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
+      <c r="C105" t="s">
+        <v>86</v>
+      </c>
+      <c r="D105" t="s">
+        <v>115</v>
+      </c>
+      <c r="E105" s="30">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>151</v>
       </c>
-      <c r="C104" t="s">
-        <v>87</v>
-      </c>
-      <c r="D104" t="s">
-        <v>119</v>
-      </c>
-      <c r="E104" s="30">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>3</v>
-      </c>
-      <c r="G104">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>152</v>
-      </c>
-      <c r="C105" t="s">
-        <v>87</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="C106" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" t="s">
         <v>116</v>
-      </c>
-      <c r="E105" s="30">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>3</v>
-      </c>
-      <c r="G105">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>152</v>
-      </c>
-      <c r="C106" t="s">
-        <v>87</v>
-      </c>
-      <c r="D106" t="s">
-        <v>117</v>
       </c>
       <c r="E106" s="30">
         <v>1</v>
@@ -7701,75 +7707,75 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" t="s">
+        <v>86</v>
+      </c>
+      <c r="D107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107" s="30">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="G107">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108" t="s">
+        <v>118</v>
+      </c>
+      <c r="E108" s="30">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>152</v>
       </c>
-      <c r="C107" t="s">
-        <v>87</v>
-      </c>
-      <c r="D107" t="s">
-        <v>118</v>
-      </c>
-      <c r="E107" s="30">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
-      <c r="G107">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
+      <c r="C109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" t="s">
+        <v>115</v>
+      </c>
+      <c r="E109" s="30">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+      <c r="G109">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>152</v>
       </c>
-      <c r="C108" t="s">
-        <v>87</v>
-      </c>
-      <c r="D108" t="s">
-        <v>119</v>
-      </c>
-      <c r="E108" s="30">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>3</v>
-      </c>
-      <c r="G108">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
-        <v>153</v>
-      </c>
-      <c r="C109" t="s">
-        <v>87</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="C110" t="s">
+        <v>86</v>
+      </c>
+      <c r="D110" t="s">
         <v>116</v>
-      </c>
-      <c r="E109" s="30">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>3</v>
-      </c>
-      <c r="G109">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>153</v>
-      </c>
-      <c r="C110" t="s">
-        <v>87</v>
-      </c>
-      <c r="D110" t="s">
-        <v>117</v>
       </c>
       <c r="E110" s="30">
         <v>1</v>
@@ -7781,95 +7787,95 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>152</v>
+      </c>
+      <c r="C111" t="s">
+        <v>86</v>
+      </c>
+      <c r="D111" t="s">
+        <v>117</v>
+      </c>
+      <c r="E111" s="30">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>3</v>
+      </c>
+      <c r="G111">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112" t="s">
+        <v>86</v>
+      </c>
+      <c r="D112" t="s">
+        <v>118</v>
+      </c>
+      <c r="E112" s="30">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>3</v>
+      </c>
+      <c r="G112">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>153</v>
       </c>
-      <c r="C111" t="s">
-        <v>87</v>
-      </c>
-      <c r="D111" t="s">
-        <v>118</v>
-      </c>
-      <c r="E111" s="30">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>3</v>
-      </c>
-      <c r="G111">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
+      <c r="C113" t="s">
+        <v>86</v>
+      </c>
+      <c r="D113" t="s">
+        <v>119</v>
+      </c>
+      <c r="E113" s="30">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>153</v>
       </c>
-      <c r="C112" t="s">
-        <v>87</v>
-      </c>
-      <c r="D112" t="s">
-        <v>119</v>
-      </c>
-      <c r="E112" s="30">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>3</v>
-      </c>
-      <c r="G112">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
-        <v>154</v>
-      </c>
-      <c r="C113" t="s">
-        <v>87</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="C114" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114" t="s">
         <v>120</v>
       </c>
-      <c r="E113" s="30">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>3</v>
-      </c>
-      <c r="G113">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>154</v>
-      </c>
-      <c r="C114" t="s">
-        <v>87</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="E114" s="30">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" t="s">
+        <v>86</v>
+      </c>
+      <c r="D115" t="s">
         <v>121</v>
-      </c>
-      <c r="E114" s="30">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>3</v>
-      </c>
-      <c r="G114">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
-        <v>154</v>
-      </c>
-      <c r="C115" t="s">
-        <v>87</v>
-      </c>
-      <c r="D115" t="s">
-        <v>122</v>
       </c>
       <c r="E115" s="30">
         <v>1</v>
@@ -7881,75 +7887,75 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116" t="s">
+        <v>122</v>
+      </c>
+      <c r="E116" s="30">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
+      </c>
+      <c r="G116">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>154</v>
       </c>
-      <c r="C116" t="s">
-        <v>87</v>
-      </c>
-      <c r="D116" t="s">
-        <v>123</v>
-      </c>
-      <c r="E116" s="30">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>3</v>
-      </c>
-      <c r="G116">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
-        <v>155</v>
-      </c>
       <c r="C117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D117" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117" s="30">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>3</v>
+      </c>
+      <c r="G117">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>154</v>
+      </c>
+      <c r="C118" t="s">
+        <v>86</v>
+      </c>
+      <c r="D118" t="s">
         <v>120</v>
       </c>
-      <c r="E117" s="30">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>3</v>
-      </c>
-      <c r="G117">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>155</v>
-      </c>
-      <c r="C118" t="s">
-        <v>87</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="E118" s="30">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" t="s">
+        <v>86</v>
+      </c>
+      <c r="D119" t="s">
         <v>121</v>
-      </c>
-      <c r="E118" s="30">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>3</v>
-      </c>
-      <c r="G118">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>155</v>
-      </c>
-      <c r="C119" t="s">
-        <v>87</v>
-      </c>
-      <c r="D119" t="s">
-        <v>122</v>
       </c>
       <c r="E119" s="30">
         <v>1</v>
@@ -7961,1990 +7967,1990 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C120" t="s">
+        <v>86</v>
+      </c>
+      <c r="D120" t="s">
+        <v>122</v>
+      </c>
+      <c r="E120" s="30">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" t="s">
+        <v>86</v>
+      </c>
+      <c r="D121" t="s">
         <v>87</v>
       </c>
-      <c r="D120" t="s">
-        <v>123</v>
-      </c>
-      <c r="E120" s="30">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>3</v>
-      </c>
-      <c r="G120">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" t="s">
+        <v>86</v>
+      </c>
+      <c r="D122" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" t="s">
+        <v>86</v>
+      </c>
+      <c r="D123" t="s">
+        <v>89</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" t="s">
+        <v>86</v>
+      </c>
+      <c r="D124" t="s">
+        <v>90</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>127</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C125" t="s">
+        <v>86</v>
+      </c>
+      <c r="D125" t="s">
         <v>87</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" t="s">
+        <v>86</v>
+      </c>
+      <c r="D126" t="s">
         <v>88</v>
       </c>
-      <c r="E121">
-        <v>3</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
         <v>127</v>
       </c>
-      <c r="C122" t="s">
-        <v>87</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="C127" t="s">
+        <v>86</v>
+      </c>
+      <c r="D127" t="s">
         <v>89</v>
       </c>
-      <c r="E122">
-        <v>3</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>127</v>
       </c>
-      <c r="C123" t="s">
-        <v>87</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="C128" t="s">
+        <v>86</v>
+      </c>
+      <c r="D128" t="s">
         <v>90</v>
       </c>
-      <c r="E123">
-        <v>3</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>127</v>
-      </c>
-      <c r="C124" t="s">
-        <v>87</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>86</v>
+      </c>
+      <c r="D129" t="s">
         <v>91</v>
       </c>
-      <c r="E124">
-        <v>3</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>128</v>
       </c>
-      <c r="C125" t="s">
-        <v>87</v>
-      </c>
-      <c r="D125" t="s">
-        <v>88</v>
-      </c>
-      <c r="E125">
-        <v>3</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
+      <c r="C130" t="s">
+        <v>86</v>
+      </c>
+      <c r="D130" t="s">
+        <v>92</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>128</v>
       </c>
-      <c r="C126" t="s">
-        <v>87</v>
-      </c>
-      <c r="D126" t="s">
-        <v>89</v>
-      </c>
-      <c r="E126">
-        <v>3</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
+      <c r="C131" t="s">
+        <v>86</v>
+      </c>
+      <c r="D131" t="s">
+        <v>93</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>128</v>
       </c>
-      <c r="C127" t="s">
-        <v>87</v>
-      </c>
-      <c r="D127" t="s">
-        <v>90</v>
-      </c>
-      <c r="E127">
-        <v>3</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>128</v>
-      </c>
-      <c r="C128" t="s">
-        <v>87</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="C132" t="s">
+        <v>86</v>
+      </c>
+      <c r="D132" t="s">
+        <v>94</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>129</v>
+      </c>
+      <c r="C133" t="s">
+        <v>86</v>
+      </c>
+      <c r="D133" t="s">
         <v>91</v>
       </c>
-      <c r="E128">
-        <v>3</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>129</v>
       </c>
-      <c r="C129" t="s">
-        <v>87</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="C134" t="s">
+        <v>86</v>
+      </c>
+      <c r="D134" t="s">
         <v>92</v>
       </c>
-      <c r="E129">
-        <v>3</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
+      <c r="E134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>129</v>
       </c>
-      <c r="C130" t="s">
-        <v>87</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="C135" t="s">
+        <v>86</v>
+      </c>
+      <c r="D135" t="s">
         <v>93</v>
       </c>
-      <c r="E130">
-        <v>3</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>129</v>
       </c>
-      <c r="C131" t="s">
-        <v>87</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="C136" t="s">
+        <v>86</v>
+      </c>
+      <c r="D136" t="s">
         <v>94</v>
       </c>
-      <c r="E131">
-        <v>3</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>129</v>
-      </c>
-      <c r="C132" t="s">
-        <v>87</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="E136">
+        <v>3</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" t="s">
+        <v>86</v>
+      </c>
+      <c r="D137" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>130</v>
+      </c>
+      <c r="C138" t="s">
+        <v>86</v>
+      </c>
+      <c r="D138" t="s">
+        <v>92</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>130</v>
+      </c>
+      <c r="C139" t="s">
+        <v>86</v>
+      </c>
+      <c r="D139" t="s">
+        <v>93</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>130</v>
+      </c>
+      <c r="C140" t="s">
+        <v>86</v>
+      </c>
+      <c r="D140" t="s">
+        <v>94</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>131</v>
+      </c>
+      <c r="C141" t="s">
+        <v>86</v>
+      </c>
+      <c r="D141" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>131</v>
+      </c>
+      <c r="C142" t="s">
+        <v>86</v>
+      </c>
+      <c r="D142" t="s">
+        <v>92</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>131</v>
+      </c>
+      <c r="C143" t="s">
+        <v>86</v>
+      </c>
+      <c r="D143" t="s">
+        <v>93</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" t="s">
+        <v>86</v>
+      </c>
+      <c r="D144" t="s">
+        <v>94</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>132</v>
+      </c>
+      <c r="C145" t="s">
+        <v>86</v>
+      </c>
+      <c r="D145" t="s">
         <v>95</v>
       </c>
-      <c r="E132">
-        <v>3</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>130</v>
-      </c>
-      <c r="C133" t="s">
-        <v>87</v>
-      </c>
-      <c r="D133" t="s">
-        <v>92</v>
-      </c>
-      <c r="E133">
-        <v>3</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>130</v>
-      </c>
-      <c r="C134" t="s">
-        <v>87</v>
-      </c>
-      <c r="D134" t="s">
-        <v>93</v>
-      </c>
-      <c r="E134">
-        <v>3</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>130</v>
-      </c>
-      <c r="C135" t="s">
-        <v>87</v>
-      </c>
-      <c r="D135" t="s">
-        <v>94</v>
-      </c>
-      <c r="E135">
-        <v>3</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>130</v>
-      </c>
-      <c r="C136" t="s">
-        <v>87</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>132</v>
+      </c>
+      <c r="C146" t="s">
+        <v>86</v>
+      </c>
+      <c r="D146" t="s">
+        <v>96</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>132</v>
+      </c>
+      <c r="C147" t="s">
+        <v>86</v>
+      </c>
+      <c r="D147" t="s">
+        <v>97</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>132</v>
+      </c>
+      <c r="C148" t="s">
+        <v>86</v>
+      </c>
+      <c r="D148" t="s">
+        <v>98</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>133</v>
+      </c>
+      <c r="C149" t="s">
+        <v>86</v>
+      </c>
+      <c r="D149" t="s">
         <v>95</v>
       </c>
-      <c r="E136">
-        <v>3</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>131</v>
-      </c>
-      <c r="C137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D137" t="s">
-        <v>92</v>
-      </c>
-      <c r="E137">
-        <v>3</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>131</v>
-      </c>
-      <c r="C138" t="s">
-        <v>87</v>
-      </c>
-      <c r="D138" t="s">
-        <v>93</v>
-      </c>
-      <c r="E138">
-        <v>3</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
-        <v>131</v>
-      </c>
-      <c r="C139" t="s">
-        <v>87</v>
-      </c>
-      <c r="D139" t="s">
-        <v>94</v>
-      </c>
-      <c r="E139">
-        <v>3</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
-        <v>131</v>
-      </c>
-      <c r="C140" t="s">
-        <v>87</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="E149">
+        <v>3</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>133</v>
+      </c>
+      <c r="C150" t="s">
+        <v>86</v>
+      </c>
+      <c r="D150" t="s">
+        <v>96</v>
+      </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>133</v>
+      </c>
+      <c r="C151" t="s">
+        <v>86</v>
+      </c>
+      <c r="D151" t="s">
+        <v>97</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>133</v>
+      </c>
+      <c r="C152" t="s">
+        <v>86</v>
+      </c>
+      <c r="D152" t="s">
+        <v>98</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>134</v>
+      </c>
+      <c r="C153" t="s">
+        <v>86</v>
+      </c>
+      <c r="D153" t="s">
         <v>95</v>
       </c>
-      <c r="E140">
-        <v>3</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
-        <v>132</v>
-      </c>
-      <c r="C141" t="s">
-        <v>87</v>
-      </c>
-      <c r="D141" t="s">
-        <v>92</v>
-      </c>
-      <c r="E141">
-        <v>3</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
-        <v>132</v>
-      </c>
-      <c r="C142" t="s">
-        <v>87</v>
-      </c>
-      <c r="D142" t="s">
-        <v>93</v>
-      </c>
-      <c r="E142">
-        <v>3</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
-        <v>132</v>
-      </c>
-      <c r="C143" t="s">
-        <v>87</v>
-      </c>
-      <c r="D143" t="s">
-        <v>94</v>
-      </c>
-      <c r="E143">
-        <v>3</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
-        <v>132</v>
-      </c>
-      <c r="C144" t="s">
-        <v>87</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="E153">
+        <v>3</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>134</v>
+      </c>
+      <c r="C154" t="s">
+        <v>86</v>
+      </c>
+      <c r="D154" t="s">
+        <v>96</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>134</v>
+      </c>
+      <c r="C155" t="s">
+        <v>86</v>
+      </c>
+      <c r="D155" t="s">
+        <v>97</v>
+      </c>
+      <c r="E155">
+        <v>3</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C156" t="s">
+        <v>86</v>
+      </c>
+      <c r="D156" t="s">
+        <v>98</v>
+      </c>
+      <c r="E156">
+        <v>3</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>135</v>
+      </c>
+      <c r="C157" t="s">
+        <v>86</v>
+      </c>
+      <c r="D157" t="s">
         <v>95</v>
       </c>
-      <c r="E144">
-        <v>3</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
-        <v>133</v>
-      </c>
-      <c r="C145" t="s">
-        <v>87</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="E157">
+        <v>3</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>135</v>
+      </c>
+      <c r="C158" t="s">
+        <v>86</v>
+      </c>
+      <c r="D158" t="s">
         <v>96</v>
       </c>
-      <c r="E145">
-        <v>3</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
-        <v>133</v>
-      </c>
-      <c r="C146" t="s">
-        <v>87</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="E158">
+        <v>3</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>135</v>
+      </c>
+      <c r="C159" t="s">
+        <v>86</v>
+      </c>
+      <c r="D159" t="s">
         <v>97</v>
       </c>
-      <c r="E146">
-        <v>3</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
-        <v>133</v>
-      </c>
-      <c r="C147" t="s">
-        <v>87</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="E159">
+        <v>3</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>135</v>
+      </c>
+      <c r="C160" t="s">
+        <v>86</v>
+      </c>
+      <c r="D160" t="s">
         <v>98</v>
       </c>
-      <c r="E147">
-        <v>3</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
-        <v>133</v>
-      </c>
-      <c r="C148" t="s">
-        <v>87</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="E160">
+        <v>3</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>136</v>
+      </c>
+      <c r="C161" t="s">
+        <v>86</v>
+      </c>
+      <c r="D161" t="s">
         <v>99</v>
       </c>
-      <c r="E148">
-        <v>3</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
-        <v>134</v>
-      </c>
-      <c r="C149" t="s">
-        <v>87</v>
-      </c>
-      <c r="D149" t="s">
-        <v>96</v>
-      </c>
-      <c r="E149">
-        <v>3</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
-        <v>134</v>
-      </c>
-      <c r="C150" t="s">
-        <v>87</v>
-      </c>
-      <c r="D150" t="s">
-        <v>97</v>
-      </c>
-      <c r="E150">
-        <v>3</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
-        <v>134</v>
-      </c>
-      <c r="C151" t="s">
-        <v>87</v>
-      </c>
-      <c r="D151" t="s">
-        <v>98</v>
-      </c>
-      <c r="E151">
-        <v>3</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
-        <v>134</v>
-      </c>
-      <c r="C152" t="s">
-        <v>87</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>136</v>
+      </c>
+      <c r="C162" t="s">
+        <v>86</v>
+      </c>
+      <c r="D162" t="s">
+        <v>100</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>136</v>
+      </c>
+      <c r="C163" t="s">
+        <v>86</v>
+      </c>
+      <c r="D163" t="s">
+        <v>101</v>
+      </c>
+      <c r="E163">
+        <v>3</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>136</v>
+      </c>
+      <c r="C164" t="s">
+        <v>86</v>
+      </c>
+      <c r="D164" t="s">
+        <v>102</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>137</v>
+      </c>
+      <c r="C165" t="s">
+        <v>86</v>
+      </c>
+      <c r="D165" t="s">
         <v>99</v>
       </c>
-      <c r="E152">
-        <v>3</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
-        <v>135</v>
-      </c>
-      <c r="C153" t="s">
-        <v>87</v>
-      </c>
-      <c r="D153" t="s">
-        <v>96</v>
-      </c>
-      <c r="E153">
-        <v>3</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B154" t="s">
-        <v>135</v>
-      </c>
-      <c r="C154" t="s">
-        <v>87</v>
-      </c>
-      <c r="D154" t="s">
-        <v>97</v>
-      </c>
-      <c r="E154">
-        <v>3</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B155" t="s">
-        <v>135</v>
-      </c>
-      <c r="C155" t="s">
-        <v>87</v>
-      </c>
-      <c r="D155" t="s">
-        <v>98</v>
-      </c>
-      <c r="E155">
-        <v>3</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B156" t="s">
-        <v>135</v>
-      </c>
-      <c r="C156" t="s">
-        <v>87</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="E165">
+        <v>3</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>137</v>
+      </c>
+      <c r="C166" t="s">
+        <v>86</v>
+      </c>
+      <c r="D166" t="s">
+        <v>100</v>
+      </c>
+      <c r="E166">
+        <v>3</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>137</v>
+      </c>
+      <c r="C167" t="s">
+        <v>86</v>
+      </c>
+      <c r="D167" t="s">
+        <v>101</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>137</v>
+      </c>
+      <c r="C168" t="s">
+        <v>86</v>
+      </c>
+      <c r="D168" t="s">
+        <v>102</v>
+      </c>
+      <c r="E168">
+        <v>3</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>138</v>
+      </c>
+      <c r="C169" t="s">
+        <v>86</v>
+      </c>
+      <c r="D169" t="s">
         <v>99</v>
       </c>
-      <c r="E156">
-        <v>3</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
-        <v>136</v>
-      </c>
-      <c r="C157" t="s">
-        <v>87</v>
-      </c>
-      <c r="D157" t="s">
-        <v>96</v>
-      </c>
-      <c r="E157">
-        <v>3</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
-        <v>136</v>
-      </c>
-      <c r="C158" t="s">
-        <v>87</v>
-      </c>
-      <c r="D158" t="s">
-        <v>97</v>
-      </c>
-      <c r="E158">
-        <v>3</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B159" t="s">
-        <v>136</v>
-      </c>
-      <c r="C159" t="s">
-        <v>87</v>
-      </c>
-      <c r="D159" t="s">
-        <v>98</v>
-      </c>
-      <c r="E159">
-        <v>3</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
-        <v>136</v>
-      </c>
-      <c r="C160" t="s">
-        <v>87</v>
-      </c>
-      <c r="D160" t="s">
-        <v>99</v>
-      </c>
-      <c r="E160">
-        <v>3</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B161" t="s">
-        <v>137</v>
-      </c>
-      <c r="C161" t="s">
-        <v>87</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="E169">
+        <v>3</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>138</v>
+      </c>
+      <c r="C170" t="s">
+        <v>86</v>
+      </c>
+      <c r="D170" t="s">
         <v>100</v>
       </c>
-      <c r="E161">
-        <v>3</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B162" t="s">
-        <v>137</v>
-      </c>
-      <c r="C162" t="s">
-        <v>87</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="E170">
+        <v>3</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>138</v>
+      </c>
+      <c r="C171" t="s">
+        <v>86</v>
+      </c>
+      <c r="D171" t="s">
         <v>101</v>
       </c>
-      <c r="E162">
-        <v>3</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B163" t="s">
-        <v>137</v>
-      </c>
-      <c r="C163" t="s">
-        <v>87</v>
-      </c>
-      <c r="D163" t="s">
+      <c r="E171">
+        <v>3</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>138</v>
+      </c>
+      <c r="C172" t="s">
+        <v>86</v>
+      </c>
+      <c r="D172" t="s">
         <v>102</v>
       </c>
-      <c r="E163">
-        <v>3</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
-        <v>137</v>
-      </c>
-      <c r="C164" t="s">
-        <v>87</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="E172">
+        <v>3</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>139</v>
+      </c>
+      <c r="C173" t="s">
+        <v>86</v>
+      </c>
+      <c r="D173" t="s">
         <v>103</v>
       </c>
-      <c r="E164">
-        <v>3</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B165" t="s">
-        <v>138</v>
-      </c>
-      <c r="C165" t="s">
-        <v>87</v>
-      </c>
-      <c r="D165" t="s">
-        <v>100</v>
-      </c>
-      <c r="E165">
-        <v>3</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B166" t="s">
-        <v>138</v>
-      </c>
-      <c r="C166" t="s">
-        <v>87</v>
-      </c>
-      <c r="D166" t="s">
-        <v>101</v>
-      </c>
-      <c r="E166">
-        <v>3</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B167" t="s">
-        <v>138</v>
-      </c>
-      <c r="C167" t="s">
-        <v>87</v>
-      </c>
-      <c r="D167" t="s">
-        <v>102</v>
-      </c>
-      <c r="E167">
-        <v>3</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B168" t="s">
-        <v>138</v>
-      </c>
-      <c r="C168" t="s">
-        <v>87</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="E173">
+        <v>3</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>139</v>
+      </c>
+      <c r="C174" t="s">
+        <v>86</v>
+      </c>
+      <c r="D174" t="s">
+        <v>104</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>139</v>
+      </c>
+      <c r="C175" t="s">
+        <v>86</v>
+      </c>
+      <c r="D175" t="s">
+        <v>105</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>139</v>
+      </c>
+      <c r="C176" t="s">
+        <v>86</v>
+      </c>
+      <c r="D176" t="s">
+        <v>106</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>140</v>
+      </c>
+      <c r="C177" t="s">
+        <v>86</v>
+      </c>
+      <c r="D177" t="s">
         <v>103</v>
       </c>
-      <c r="E168">
-        <v>3</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B169" t="s">
-        <v>139</v>
-      </c>
-      <c r="C169" t="s">
-        <v>87</v>
-      </c>
-      <c r="D169" t="s">
-        <v>100</v>
-      </c>
-      <c r="E169">
-        <v>3</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
-        <v>139</v>
-      </c>
-      <c r="C170" t="s">
-        <v>87</v>
-      </c>
-      <c r="D170" t="s">
-        <v>101</v>
-      </c>
-      <c r="E170">
-        <v>3</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B171" t="s">
-        <v>139</v>
-      </c>
-      <c r="C171" t="s">
-        <v>87</v>
-      </c>
-      <c r="D171" t="s">
-        <v>102</v>
-      </c>
-      <c r="E171">
-        <v>3</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B172" t="s">
-        <v>139</v>
-      </c>
-      <c r="C172" t="s">
-        <v>87</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="E177">
+        <v>3</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>140</v>
+      </c>
+      <c r="C178" t="s">
+        <v>86</v>
+      </c>
+      <c r="D178" t="s">
+        <v>104</v>
+      </c>
+      <c r="E178">
+        <v>3</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>140</v>
+      </c>
+      <c r="C179" t="s">
+        <v>86</v>
+      </c>
+      <c r="D179" t="s">
+        <v>105</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>140</v>
+      </c>
+      <c r="C180" t="s">
+        <v>86</v>
+      </c>
+      <c r="D180" t="s">
+        <v>106</v>
+      </c>
+      <c r="E180">
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>141</v>
+      </c>
+      <c r="C181" t="s">
+        <v>86</v>
+      </c>
+      <c r="D181" t="s">
         <v>103</v>
       </c>
-      <c r="E172">
-        <v>3</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B173" t="s">
-        <v>140</v>
-      </c>
-      <c r="C173" t="s">
-        <v>87</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="E181">
+        <v>3</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>141</v>
+      </c>
+      <c r="C182" t="s">
+        <v>86</v>
+      </c>
+      <c r="D182" t="s">
         <v>104</v>
       </c>
-      <c r="E173">
-        <v>3</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B174" t="s">
-        <v>140</v>
-      </c>
-      <c r="C174" t="s">
-        <v>87</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="E182">
+        <v>3</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>141</v>
+      </c>
+      <c r="C183" t="s">
+        <v>86</v>
+      </c>
+      <c r="D183" t="s">
         <v>105</v>
       </c>
-      <c r="E174">
-        <v>3</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B175" t="s">
-        <v>140</v>
-      </c>
-      <c r="C175" t="s">
-        <v>87</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="E183">
+        <v>3</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>141</v>
+      </c>
+      <c r="C184" t="s">
+        <v>86</v>
+      </c>
+      <c r="D184" t="s">
         <v>106</v>
       </c>
-      <c r="E175">
-        <v>3</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B176" t="s">
-        <v>140</v>
-      </c>
-      <c r="C176" t="s">
-        <v>87</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="E184">
+        <v>3</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>142</v>
+      </c>
+      <c r="C185" t="s">
+        <v>86</v>
+      </c>
+      <c r="D185" t="s">
         <v>107</v>
       </c>
-      <c r="E176">
-        <v>3</v>
-      </c>
-      <c r="G176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B177" t="s">
-        <v>141</v>
-      </c>
-      <c r="C177" t="s">
-        <v>87</v>
-      </c>
-      <c r="D177" t="s">
-        <v>104</v>
-      </c>
-      <c r="E177">
-        <v>3</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B178" t="s">
-        <v>141</v>
-      </c>
-      <c r="C178" t="s">
-        <v>87</v>
-      </c>
-      <c r="D178" t="s">
-        <v>105</v>
-      </c>
-      <c r="E178">
-        <v>3</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B179" t="s">
-        <v>141</v>
-      </c>
-      <c r="C179" t="s">
-        <v>87</v>
-      </c>
-      <c r="D179" t="s">
-        <v>106</v>
-      </c>
-      <c r="E179">
-        <v>3</v>
-      </c>
-      <c r="G179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B180" t="s">
-        <v>141</v>
-      </c>
-      <c r="C180" t="s">
-        <v>87</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="E185">
+        <v>3</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>142</v>
+      </c>
+      <c r="C186" t="s">
+        <v>86</v>
+      </c>
+      <c r="D186" t="s">
+        <v>108</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>142</v>
+      </c>
+      <c r="C187" t="s">
+        <v>86</v>
+      </c>
+      <c r="D187" t="s">
+        <v>109</v>
+      </c>
+      <c r="E187">
+        <v>3</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C188" t="s">
+        <v>86</v>
+      </c>
+      <c r="D188" t="s">
+        <v>110</v>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>143</v>
+      </c>
+      <c r="C189" t="s">
+        <v>86</v>
+      </c>
+      <c r="D189" t="s">
         <v>107</v>
       </c>
-      <c r="E180">
-        <v>3</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B181" t="s">
-        <v>142</v>
-      </c>
-      <c r="C181" t="s">
-        <v>87</v>
-      </c>
-      <c r="D181" t="s">
-        <v>104</v>
-      </c>
-      <c r="E181">
-        <v>3</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B182" t="s">
-        <v>142</v>
-      </c>
-      <c r="C182" t="s">
-        <v>87</v>
-      </c>
-      <c r="D182" t="s">
-        <v>105</v>
-      </c>
-      <c r="E182">
-        <v>3</v>
-      </c>
-      <c r="G182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B183" t="s">
-        <v>142</v>
-      </c>
-      <c r="C183" t="s">
-        <v>87</v>
-      </c>
-      <c r="D183" t="s">
-        <v>106</v>
-      </c>
-      <c r="E183">
-        <v>3</v>
-      </c>
-      <c r="G183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B184" t="s">
-        <v>142</v>
-      </c>
-      <c r="C184" t="s">
-        <v>87</v>
-      </c>
-      <c r="D184" t="s">
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>143</v>
+      </c>
+      <c r="C190" t="s">
+        <v>86</v>
+      </c>
+      <c r="D190" t="s">
+        <v>108</v>
+      </c>
+      <c r="E190">
+        <v>3</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>143</v>
+      </c>
+      <c r="C191" t="s">
+        <v>86</v>
+      </c>
+      <c r="D191" t="s">
+        <v>109</v>
+      </c>
+      <c r="E191">
+        <v>3</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>143</v>
+      </c>
+      <c r="C192" t="s">
+        <v>86</v>
+      </c>
+      <c r="D192" t="s">
+        <v>110</v>
+      </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>144</v>
+      </c>
+      <c r="C193" t="s">
+        <v>86</v>
+      </c>
+      <c r="D193" t="s">
         <v>107</v>
       </c>
-      <c r="E184">
-        <v>3</v>
-      </c>
-      <c r="G184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B185" t="s">
-        <v>143</v>
-      </c>
-      <c r="C185" t="s">
-        <v>87</v>
-      </c>
-      <c r="D185" t="s">
+      <c r="E193">
+        <v>3</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>144</v>
+      </c>
+      <c r="C194" t="s">
+        <v>86</v>
+      </c>
+      <c r="D194" t="s">
         <v>108</v>
       </c>
-      <c r="E185">
-        <v>3</v>
-      </c>
-      <c r="G185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B186" t="s">
-        <v>143</v>
-      </c>
-      <c r="C186" t="s">
-        <v>87</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="E194">
+        <v>3</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>144</v>
+      </c>
+      <c r="C195" t="s">
+        <v>86</v>
+      </c>
+      <c r="D195" t="s">
         <v>109</v>
       </c>
-      <c r="E186">
-        <v>3</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B187" t="s">
-        <v>143</v>
-      </c>
-      <c r="C187" t="s">
-        <v>87</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="E195">
+        <v>3</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>144</v>
+      </c>
+      <c r="C196" t="s">
+        <v>86</v>
+      </c>
+      <c r="D196" t="s">
         <v>110</v>
       </c>
-      <c r="E187">
-        <v>3</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B188" t="s">
-        <v>143</v>
-      </c>
-      <c r="C188" t="s">
-        <v>87</v>
-      </c>
-      <c r="D188" t="s">
+      <c r="E196">
+        <v>3</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>145</v>
+      </c>
+      <c r="C197" t="s">
+        <v>86</v>
+      </c>
+      <c r="D197" t="s">
+        <v>107</v>
+      </c>
+      <c r="E197">
+        <v>3</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>145</v>
+      </c>
+      <c r="C198" t="s">
+        <v>86</v>
+      </c>
+      <c r="D198" t="s">
+        <v>108</v>
+      </c>
+      <c r="E198">
+        <v>3</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>145</v>
+      </c>
+      <c r="C199" t="s">
+        <v>86</v>
+      </c>
+      <c r="D199" t="s">
+        <v>109</v>
+      </c>
+      <c r="E199">
+        <v>3</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>145</v>
+      </c>
+      <c r="C200" t="s">
+        <v>86</v>
+      </c>
+      <c r="D200" t="s">
+        <v>110</v>
+      </c>
+      <c r="E200">
+        <v>3</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>146</v>
+      </c>
+      <c r="C201" t="s">
+        <v>86</v>
+      </c>
+      <c r="D201" t="s">
+        <v>107</v>
+      </c>
+      <c r="E201">
+        <v>3</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>146</v>
+      </c>
+      <c r="C202" t="s">
+        <v>86</v>
+      </c>
+      <c r="D202" t="s">
+        <v>108</v>
+      </c>
+      <c r="E202">
+        <v>3</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>146</v>
+      </c>
+      <c r="C203" t="s">
+        <v>86</v>
+      </c>
+      <c r="D203" t="s">
+        <v>109</v>
+      </c>
+      <c r="E203">
+        <v>3</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>146</v>
+      </c>
+      <c r="C204" t="s">
+        <v>86</v>
+      </c>
+      <c r="D204" t="s">
+        <v>110</v>
+      </c>
+      <c r="E204">
+        <v>3</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>147</v>
+      </c>
+      <c r="C205" t="s">
+        <v>86</v>
+      </c>
+      <c r="D205" t="s">
         <v>111</v>
       </c>
-      <c r="E188">
-        <v>3</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B189" t="s">
-        <v>144</v>
-      </c>
-      <c r="C189" t="s">
-        <v>87</v>
-      </c>
-      <c r="D189" t="s">
-        <v>108</v>
-      </c>
-      <c r="E189">
-        <v>3</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B190" t="s">
-        <v>144</v>
-      </c>
-      <c r="C190" t="s">
-        <v>87</v>
-      </c>
-      <c r="D190" t="s">
-        <v>109</v>
-      </c>
-      <c r="E190">
-        <v>3</v>
-      </c>
-      <c r="G190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B191" t="s">
-        <v>144</v>
-      </c>
-      <c r="C191" t="s">
-        <v>87</v>
-      </c>
-      <c r="D191" t="s">
-        <v>110</v>
-      </c>
-      <c r="E191">
-        <v>3</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B192" t="s">
-        <v>144</v>
-      </c>
-      <c r="C192" t="s">
-        <v>87</v>
-      </c>
-      <c r="D192" t="s">
+      <c r="E205">
+        <v>3</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>147</v>
+      </c>
+      <c r="C206" t="s">
+        <v>86</v>
+      </c>
+      <c r="D206" t="s">
+        <v>112</v>
+      </c>
+      <c r="E206">
+        <v>3</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>147</v>
+      </c>
+      <c r="C207" t="s">
+        <v>86</v>
+      </c>
+      <c r="D207" t="s">
+        <v>113</v>
+      </c>
+      <c r="E207">
+        <v>3</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>147</v>
+      </c>
+      <c r="C208" t="s">
+        <v>86</v>
+      </c>
+      <c r="D208" t="s">
+        <v>114</v>
+      </c>
+      <c r="E208">
+        <v>3</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>148</v>
+      </c>
+      <c r="C209" t="s">
+        <v>86</v>
+      </c>
+      <c r="D209" t="s">
         <v>111</v>
       </c>
-      <c r="E192">
-        <v>3</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B193" t="s">
-        <v>145</v>
-      </c>
-      <c r="C193" t="s">
-        <v>87</v>
-      </c>
-      <c r="D193" t="s">
-        <v>108</v>
-      </c>
-      <c r="E193">
-        <v>3</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B194" t="s">
-        <v>145</v>
-      </c>
-      <c r="C194" t="s">
-        <v>87</v>
-      </c>
-      <c r="D194" t="s">
-        <v>109</v>
-      </c>
-      <c r="E194">
-        <v>3</v>
-      </c>
-      <c r="G194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B195" t="s">
-        <v>145</v>
-      </c>
-      <c r="C195" t="s">
-        <v>87</v>
-      </c>
-      <c r="D195" t="s">
-        <v>110</v>
-      </c>
-      <c r="E195">
-        <v>3</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B196" t="s">
-        <v>145</v>
-      </c>
-      <c r="C196" t="s">
-        <v>87</v>
-      </c>
-      <c r="D196" t="s">
+      <c r="E209">
+        <v>3</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>148</v>
+      </c>
+      <c r="C210" t="s">
+        <v>86</v>
+      </c>
+      <c r="D210" t="s">
+        <v>112</v>
+      </c>
+      <c r="E210">
+        <v>3</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>148</v>
+      </c>
+      <c r="C211" t="s">
+        <v>86</v>
+      </c>
+      <c r="D211" t="s">
+        <v>113</v>
+      </c>
+      <c r="E211">
+        <v>3</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>148</v>
+      </c>
+      <c r="C212" t="s">
+        <v>86</v>
+      </c>
+      <c r="D212" t="s">
+        <v>114</v>
+      </c>
+      <c r="E212">
+        <v>3</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>149</v>
+      </c>
+      <c r="C213" t="s">
+        <v>86</v>
+      </c>
+      <c r="D213" t="s">
         <v>111</v>
       </c>
-      <c r="E196">
-        <v>3</v>
-      </c>
-      <c r="G196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B197" t="s">
-        <v>146</v>
-      </c>
-      <c r="C197" t="s">
-        <v>87</v>
-      </c>
-      <c r="D197" t="s">
-        <v>108</v>
-      </c>
-      <c r="E197">
-        <v>3</v>
-      </c>
-      <c r="G197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B198" t="s">
-        <v>146</v>
-      </c>
-      <c r="C198" t="s">
-        <v>87</v>
-      </c>
-      <c r="D198" t="s">
-        <v>109</v>
-      </c>
-      <c r="E198">
-        <v>3</v>
-      </c>
-      <c r="G198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B199" t="s">
-        <v>146</v>
-      </c>
-      <c r="C199" t="s">
-        <v>87</v>
-      </c>
-      <c r="D199" t="s">
-        <v>110</v>
-      </c>
-      <c r="E199">
-        <v>3</v>
-      </c>
-      <c r="G199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B200" t="s">
-        <v>146</v>
-      </c>
-      <c r="C200" t="s">
-        <v>87</v>
-      </c>
-      <c r="D200" t="s">
-        <v>111</v>
-      </c>
-      <c r="E200">
-        <v>3</v>
-      </c>
-      <c r="G200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B201" t="s">
-        <v>147</v>
-      </c>
-      <c r="C201" t="s">
-        <v>87</v>
-      </c>
-      <c r="D201" t="s">
-        <v>108</v>
-      </c>
-      <c r="E201">
-        <v>3</v>
-      </c>
-      <c r="G201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B202" t="s">
-        <v>147</v>
-      </c>
-      <c r="C202" t="s">
-        <v>87</v>
-      </c>
-      <c r="D202" t="s">
-        <v>109</v>
-      </c>
-      <c r="E202">
-        <v>3</v>
-      </c>
-      <c r="G202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B203" t="s">
-        <v>147</v>
-      </c>
-      <c r="C203" t="s">
-        <v>87</v>
-      </c>
-      <c r="D203" t="s">
-        <v>110</v>
-      </c>
-      <c r="E203">
-        <v>3</v>
-      </c>
-      <c r="G203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B204" t="s">
-        <v>147</v>
-      </c>
-      <c r="C204" t="s">
-        <v>87</v>
-      </c>
-      <c r="D204" t="s">
-        <v>111</v>
-      </c>
-      <c r="E204">
-        <v>3</v>
-      </c>
-      <c r="G204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B205" t="s">
-        <v>148</v>
-      </c>
-      <c r="C205" t="s">
-        <v>87</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="E213">
+        <v>3</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>149</v>
+      </c>
+      <c r="C214" t="s">
+        <v>86</v>
+      </c>
+      <c r="D214" t="s">
         <v>112</v>
       </c>
-      <c r="E205">
-        <v>3</v>
-      </c>
-      <c r="G205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B206" t="s">
-        <v>148</v>
-      </c>
-      <c r="C206" t="s">
-        <v>87</v>
-      </c>
-      <c r="D206" t="s">
+      <c r="E214">
+        <v>3</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>149</v>
+      </c>
+      <c r="C215" t="s">
+        <v>86</v>
+      </c>
+      <c r="D215" t="s">
         <v>113</v>
       </c>
-      <c r="E206">
-        <v>3</v>
-      </c>
-      <c r="G206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B207" t="s">
-        <v>148</v>
-      </c>
-      <c r="C207" t="s">
-        <v>87</v>
-      </c>
-      <c r="D207" t="s">
+      <c r="E215">
+        <v>3</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>149</v>
+      </c>
+      <c r="C216" t="s">
+        <v>86</v>
+      </c>
+      <c r="D216" t="s">
         <v>114</v>
       </c>
-      <c r="E207">
-        <v>3</v>
-      </c>
-      <c r="G207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B208" t="s">
-        <v>148</v>
-      </c>
-      <c r="C208" t="s">
-        <v>87</v>
-      </c>
-      <c r="D208" t="s">
+      <c r="E216">
+        <v>3</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>150</v>
+      </c>
+      <c r="C217" t="s">
+        <v>86</v>
+      </c>
+      <c r="D217" t="s">
         <v>115</v>
       </c>
-      <c r="E208">
-        <v>3</v>
-      </c>
-      <c r="G208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B209" t="s">
-        <v>149</v>
-      </c>
-      <c r="C209" t="s">
-        <v>87</v>
-      </c>
-      <c r="D209" t="s">
-        <v>112</v>
-      </c>
-      <c r="E209">
-        <v>3</v>
-      </c>
-      <c r="G209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B210" t="s">
-        <v>149</v>
-      </c>
-      <c r="C210" t="s">
-        <v>87</v>
-      </c>
-      <c r="D210" t="s">
-        <v>113</v>
-      </c>
-      <c r="E210">
-        <v>3</v>
-      </c>
-      <c r="G210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B211" t="s">
-        <v>149</v>
-      </c>
-      <c r="C211" t="s">
-        <v>87</v>
-      </c>
-      <c r="D211" t="s">
-        <v>114</v>
-      </c>
-      <c r="E211">
-        <v>3</v>
-      </c>
-      <c r="G211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B212" t="s">
-        <v>149</v>
-      </c>
-      <c r="C212" t="s">
-        <v>87</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="E217">
+        <v>3</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>150</v>
+      </c>
+      <c r="C218" t="s">
+        <v>86</v>
+      </c>
+      <c r="D218" t="s">
+        <v>116</v>
+      </c>
+      <c r="E218">
+        <v>3</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>150</v>
+      </c>
+      <c r="C219" t="s">
+        <v>86</v>
+      </c>
+      <c r="D219" t="s">
+        <v>117</v>
+      </c>
+      <c r="E219">
+        <v>3</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>150</v>
+      </c>
+      <c r="C220" t="s">
+        <v>86</v>
+      </c>
+      <c r="D220" t="s">
+        <v>118</v>
+      </c>
+      <c r="E220">
+        <v>3</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>151</v>
+      </c>
+      <c r="C221" t="s">
+        <v>86</v>
+      </c>
+      <c r="D221" t="s">
         <v>115</v>
       </c>
-      <c r="E212">
-        <v>3</v>
-      </c>
-      <c r="G212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B213" t="s">
-        <v>150</v>
-      </c>
-      <c r="C213" t="s">
-        <v>87</v>
-      </c>
-      <c r="D213" t="s">
-        <v>112</v>
-      </c>
-      <c r="E213">
-        <v>3</v>
-      </c>
-      <c r="G213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B214" t="s">
-        <v>150</v>
-      </c>
-      <c r="C214" t="s">
-        <v>87</v>
-      </c>
-      <c r="D214" t="s">
-        <v>113</v>
-      </c>
-      <c r="E214">
-        <v>3</v>
-      </c>
-      <c r="G214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B215" t="s">
-        <v>150</v>
-      </c>
-      <c r="C215" t="s">
-        <v>87</v>
-      </c>
-      <c r="D215" t="s">
-        <v>114</v>
-      </c>
-      <c r="E215">
-        <v>3</v>
-      </c>
-      <c r="G215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B216" t="s">
-        <v>150</v>
-      </c>
-      <c r="C216" t="s">
-        <v>87</v>
-      </c>
-      <c r="D216" t="s">
+      <c r="E221">
+        <v>3</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>151</v>
+      </c>
+      <c r="C222" t="s">
+        <v>86</v>
+      </c>
+      <c r="D222" t="s">
+        <v>116</v>
+      </c>
+      <c r="E222">
+        <v>3</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>151</v>
+      </c>
+      <c r="C223" t="s">
+        <v>86</v>
+      </c>
+      <c r="D223" t="s">
+        <v>117</v>
+      </c>
+      <c r="E223">
+        <v>3</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>151</v>
+      </c>
+      <c r="C224" t="s">
+        <v>86</v>
+      </c>
+      <c r="D224" t="s">
+        <v>118</v>
+      </c>
+      <c r="E224">
+        <v>3</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>152</v>
+      </c>
+      <c r="C225" t="s">
+        <v>86</v>
+      </c>
+      <c r="D225" t="s">
         <v>115</v>
       </c>
-      <c r="E216">
-        <v>3</v>
-      </c>
-      <c r="G216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B217" t="s">
-        <v>151</v>
-      </c>
-      <c r="C217" t="s">
-        <v>87</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="E225">
+        <v>3</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>152</v>
+      </c>
+      <c r="C226" t="s">
+        <v>86</v>
+      </c>
+      <c r="D226" t="s">
         <v>116</v>
       </c>
-      <c r="E217">
-        <v>3</v>
-      </c>
-      <c r="G217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B218" t="s">
-        <v>151</v>
-      </c>
-      <c r="C218" t="s">
-        <v>87</v>
-      </c>
-      <c r="D218" t="s">
+      <c r="E226">
+        <v>3</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>152</v>
+      </c>
+      <c r="C227" t="s">
+        <v>86</v>
+      </c>
+      <c r="D227" t="s">
         <v>117</v>
       </c>
-      <c r="E218">
-        <v>3</v>
-      </c>
-      <c r="G218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B219" t="s">
-        <v>151</v>
-      </c>
-      <c r="C219" t="s">
-        <v>87</v>
-      </c>
-      <c r="D219" t="s">
+      <c r="E227">
+        <v>3</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>152</v>
+      </c>
+      <c r="C228" t="s">
+        <v>86</v>
+      </c>
+      <c r="D228" t="s">
         <v>118</v>
       </c>
-      <c r="E219">
-        <v>3</v>
-      </c>
-      <c r="G219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B220" t="s">
-        <v>151</v>
-      </c>
-      <c r="C220" t="s">
-        <v>87</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="E228">
+        <v>3</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>153</v>
+      </c>
+      <c r="C229" t="s">
+        <v>86</v>
+      </c>
+      <c r="D229" t="s">
         <v>119</v>
       </c>
-      <c r="E220">
-        <v>3</v>
-      </c>
-      <c r="G220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B221" t="s">
-        <v>152</v>
-      </c>
-      <c r="C221" t="s">
-        <v>87</v>
-      </c>
-      <c r="D221" t="s">
-        <v>116</v>
-      </c>
-      <c r="E221">
-        <v>3</v>
-      </c>
-      <c r="G221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B222" t="s">
-        <v>152</v>
-      </c>
-      <c r="C222" t="s">
-        <v>87</v>
-      </c>
-      <c r="D222" t="s">
-        <v>117</v>
-      </c>
-      <c r="E222">
-        <v>3</v>
-      </c>
-      <c r="G222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B223" t="s">
-        <v>152</v>
-      </c>
-      <c r="C223" t="s">
-        <v>87</v>
-      </c>
-      <c r="D223" t="s">
-        <v>118</v>
-      </c>
-      <c r="E223">
-        <v>3</v>
-      </c>
-      <c r="G223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B224" t="s">
-        <v>152</v>
-      </c>
-      <c r="C224" t="s">
-        <v>87</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="E229">
+        <v>3</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>153</v>
+      </c>
+      <c r="C230" t="s">
+        <v>86</v>
+      </c>
+      <c r="D230" t="s">
+        <v>120</v>
+      </c>
+      <c r="E230">
+        <v>3</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>153</v>
+      </c>
+      <c r="C231" t="s">
+        <v>86</v>
+      </c>
+      <c r="D231" t="s">
+        <v>121</v>
+      </c>
+      <c r="E231">
+        <v>3</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>153</v>
+      </c>
+      <c r="C232" t="s">
+        <v>86</v>
+      </c>
+      <c r="D232" t="s">
+        <v>122</v>
+      </c>
+      <c r="E232">
+        <v>3</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>154</v>
+      </c>
+      <c r="C233" t="s">
+        <v>86</v>
+      </c>
+      <c r="D233" t="s">
         <v>119</v>
       </c>
-      <c r="E224">
-        <v>3</v>
-      </c>
-      <c r="G224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B225" t="s">
-        <v>153</v>
-      </c>
-      <c r="C225" t="s">
-        <v>87</v>
-      </c>
-      <c r="D225" t="s">
-        <v>116</v>
-      </c>
-      <c r="E225">
-        <v>3</v>
-      </c>
-      <c r="G225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B226" t="s">
-        <v>153</v>
-      </c>
-      <c r="C226" t="s">
-        <v>87</v>
-      </c>
-      <c r="D226" t="s">
-        <v>117</v>
-      </c>
-      <c r="E226">
-        <v>3</v>
-      </c>
-      <c r="G226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B227" t="s">
-        <v>153</v>
-      </c>
-      <c r="C227" t="s">
-        <v>87</v>
-      </c>
-      <c r="D227" t="s">
-        <v>118</v>
-      </c>
-      <c r="E227">
-        <v>3</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B228" t="s">
-        <v>153</v>
-      </c>
-      <c r="C228" t="s">
-        <v>87</v>
-      </c>
-      <c r="D228" t="s">
-        <v>119</v>
-      </c>
-      <c r="E228">
-        <v>3</v>
-      </c>
-      <c r="G228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B229" t="s">
+      <c r="E233">
+        <v>3</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
         <v>154</v>
       </c>
-      <c r="C229" t="s">
-        <v>87</v>
-      </c>
-      <c r="D229" t="s">
+      <c r="C234" t="s">
+        <v>86</v>
+      </c>
+      <c r="D234" t="s">
         <v>120</v>
       </c>
-      <c r="E229">
-        <v>3</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B230" t="s">
+      <c r="E234">
+        <v>3</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
         <v>154</v>
       </c>
-      <c r="C230" t="s">
-        <v>87</v>
-      </c>
-      <c r="D230" t="s">
+      <c r="C235" t="s">
+        <v>86</v>
+      </c>
+      <c r="D235" t="s">
         <v>121</v>
       </c>
-      <c r="E230">
-        <v>3</v>
-      </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B231" t="s">
+      <c r="E235">
+        <v>3</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
         <v>154</v>
       </c>
-      <c r="C231" t="s">
-        <v>87</v>
-      </c>
-      <c r="D231" t="s">
+      <c r="C236" t="s">
+        <v>86</v>
+      </c>
+      <c r="D236" t="s">
         <v>122</v>
-      </c>
-      <c r="E231">
-        <v>3</v>
-      </c>
-      <c r="G231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B232" t="s">
-        <v>154</v>
-      </c>
-      <c r="C232" t="s">
-        <v>87</v>
-      </c>
-      <c r="D232" t="s">
-        <v>123</v>
-      </c>
-      <c r="E232">
-        <v>3</v>
-      </c>
-      <c r="G232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B233" t="s">
-        <v>155</v>
-      </c>
-      <c r="C233" t="s">
-        <v>87</v>
-      </c>
-      <c r="D233" t="s">
-        <v>120</v>
-      </c>
-      <c r="E233">
-        <v>3</v>
-      </c>
-      <c r="G233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B234" t="s">
-        <v>155</v>
-      </c>
-      <c r="C234" t="s">
-        <v>87</v>
-      </c>
-      <c r="D234" t="s">
-        <v>121</v>
-      </c>
-      <c r="E234">
-        <v>3</v>
-      </c>
-      <c r="G234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B235" t="s">
-        <v>155</v>
-      </c>
-      <c r="C235" t="s">
-        <v>87</v>
-      </c>
-      <c r="D235" t="s">
-        <v>122</v>
-      </c>
-      <c r="E235">
-        <v>3</v>
-      </c>
-      <c r="G235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B236" t="s">
-        <v>155</v>
-      </c>
-      <c r="C236" t="s">
-        <v>87</v>
-      </c>
-      <c r="D236" t="s">
-        <v>123</v>
       </c>
       <c r="E236">
         <v>3</v>
